--- a/Practice Data/TestData.xlsx
+++ b/Practice Data/TestData.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shiva\OneDrive\Desktop\Shiva\UiPath Coaching\Batch 4\UiPathTraining_Batch4\Practice Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FEFC30-AA49-4AEE-87CB-91982044C886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976FAB3D-D087-44A7-B0CA-7A0E0518A5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,9 +27,218 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Fname</t>
+  </si>
+  <si>
+    <t>Lname</t>
+  </si>
+  <si>
+    <t>Employee ID</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Job Title</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>E02015</t>
+  </si>
+  <si>
+    <t>Lucas Richardson</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>E02016</t>
+  </si>
+  <si>
+    <t>Jacob Moore</t>
+  </si>
+  <si>
+    <t>Sr. Manager</t>
+  </si>
+  <si>
+    <t>E02028</t>
+  </si>
+  <si>
+    <t>Brooks Richardson</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>E02029</t>
+  </si>
+  <si>
+    <t>Ivy Thompson</t>
+  </si>
+  <si>
+    <t>E02030</t>
+  </si>
+  <si>
+    <t>Peyton Wright</t>
+  </si>
+  <si>
+    <t>E02039</t>
+  </si>
+  <si>
+    <t>Silas Ross</t>
+  </si>
+  <si>
+    <t>Analyst</t>
+  </si>
+  <si>
+    <t>E02040</t>
+  </si>
+  <si>
+    <t>Jeremiah Cheng</t>
+  </si>
+  <si>
+    <t>Sr. Analyst</t>
+  </si>
+  <si>
+    <t>E02047</t>
+  </si>
+  <si>
+    <t>Savannah Morales</t>
+  </si>
+  <si>
+    <t>Analyst II</t>
+  </si>
+  <si>
+    <t>E02068</t>
+  </si>
+  <si>
+    <t>Ethan Sanchez</t>
+  </si>
+  <si>
+    <t>E02070</t>
+  </si>
+  <si>
+    <t>Elias Hsu</t>
+  </si>
+  <si>
+    <t>E02071</t>
+  </si>
+  <si>
+    <t>Luca Phan</t>
+  </si>
+  <si>
+    <t>E02074</t>
+  </si>
+  <si>
+    <t>Leonardo Ng</t>
+  </si>
+  <si>
+    <t>E02080</t>
+  </si>
+  <si>
+    <t>Eli Richardson</t>
+  </si>
+  <si>
+    <t>E02086</t>
+  </si>
+  <si>
+    <t>Lucas Luong</t>
+  </si>
+  <si>
+    <t>E02087</t>
+  </si>
+  <si>
+    <t>Xavier Patel</t>
+  </si>
+  <si>
+    <t>Emp1</t>
+  </si>
+  <si>
+    <t>Emp2</t>
+  </si>
+  <si>
+    <t>Emp3</t>
+  </si>
+  <si>
+    <t>Emp4</t>
+  </si>
+  <si>
+    <t>Emp5</t>
+  </si>
+  <si>
+    <t>Emp6</t>
+  </si>
+  <si>
+    <t>Emp7</t>
+  </si>
+  <si>
+    <t>Emp8</t>
+  </si>
+  <si>
+    <t>Emp9</t>
+  </si>
+  <si>
+    <t>Emp10</t>
+  </si>
+  <si>
+    <t>EMPLName1</t>
+  </si>
+  <si>
+    <t>EMPLName2</t>
+  </si>
+  <si>
+    <t>EMPLName3</t>
+  </si>
+  <si>
+    <t>EMPLName4</t>
+  </si>
+  <si>
+    <t>EMPLName5</t>
+  </si>
+  <si>
+    <t>EMPLName6</t>
+  </si>
+  <si>
+    <t>EMPLName7</t>
+  </si>
+  <si>
+    <t>EMPLName8</t>
+  </si>
+  <si>
+    <t>EMPLName9</t>
+  </si>
+  <si>
+    <t>EMPLName10</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Shiva</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>Seshu</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,16 +246,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3DB182"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -51,12 +283,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -337,9 +623,439 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="19.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>110</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5FC06D-17AB-474A-8DF5-13B466C8B509}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CAFB023-0487-4B13-B0C0-C768D8FB6E4F}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7013ACC-9A1C-490C-8229-438935B7E051}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
